--- a/templates/shedule.xlsx
+++ b/templates/shedule.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="shedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,10 +21,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>State of health</t>
+    <t>Days</t>
   </si>
   <si>
-    <t>Days</t>
+    <t>Mood</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -356,10 +356,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
